--- a/documentos/MODELO LIBRO SUELDO DIGITAL FINAL octubre 2021.xlsx
+++ b/documentos/MODELO LIBRO SUELDO DIGITAL FINAL octubre 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis documentos\GRUPO PERSOGLIA\LUIS PERSOGLIA SRL\LABORAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE73DE73-A8E6-4135-98B8-716C7DDDBE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2341DF1-3637-4266-B621-185A5899EC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIGINAL" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="101">
   <si>
     <t>SUELDO</t>
   </si>
@@ -243,14 +243,107 @@
     <t>BEUVAIS MARIO</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>CANTIDAD DE DIAS SAC PROPORCIONAL</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE DIAS ADELANTO VACACIONAL</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE DIAS Horas extras</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE DIAS Horas extras al 50 %</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE DIAS Horas extras al 100 %</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE DIAS Horas extras al 200 %</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Base imponible 1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Base imponible 2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Base imponible 3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Base imponible 4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Base imponible 5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>Base imponible 6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>Base imponible 7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>Base imponible 8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>Base imponible 9</t>
+  </si>
+  <si>
+    <t>BCASS</t>
+  </si>
+  <si>
+    <t>Base para el cálculo diferencial de aporte de Seg. Social</t>
+  </si>
+  <si>
+    <t>BCCSS</t>
+  </si>
+  <si>
+    <t>Base para el cálculo diferencial de contribuciones de Seg. Social</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>Base imponible 10</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Importe a detraer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +375,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +397,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -305,12 +412,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -371,13 +494,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A8C27B72-C8B1-4D51-BFDA-4F6233CD0BD9}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{8DA4081B-7F5D-4CD2-9A02-610299BE2E5F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1479,17 +1612,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7FFAD-1B0A-42C5-95C8-94CD4283EDB6}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O46" sqref="O46:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
@@ -1501,581 +1634,460 @@
     <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
     <col min="12" max="15" width="14.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="27">
-        <v>31</v>
-      </c>
-      <c r="D1" s="27">
-        <v>32</v>
-      </c>
-      <c r="E1" s="27">
-        <v>51</v>
-      </c>
-      <c r="F1" s="27">
-        <v>4</v>
-      </c>
-      <c r="G1" s="27">
-        <v>17</v>
-      </c>
-      <c r="H1" s="27">
+    <row r="1" spans="1:16" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="27">
+      <c r="C2" s="3">
+        <v>23373230529</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20412270089</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20363899952</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20280474682</v>
+      </c>
+      <c r="G2" s="3">
+        <v>20177508293</v>
+      </c>
+      <c r="H2" s="3">
+        <v>20215465676</v>
+      </c>
+      <c r="I2" s="31">
+        <v>20302390224</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20397771262</v>
+      </c>
+      <c r="K2" s="3">
+        <v>20222706042</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20146494669</v>
+      </c>
+      <c r="M2" s="3">
+        <v>20260202031</v>
+      </c>
+      <c r="N2" s="3">
+        <v>20229337700</v>
+      </c>
+      <c r="O2" s="3">
+        <v>20179209927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="27">
-        <v>55</v>
-      </c>
-      <c r="K1" s="27">
-        <v>35</v>
-      </c>
-      <c r="L1" s="27">
+      <c r="D3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="27">
-        <v>46</v>
-      </c>
-      <c r="N1" s="27">
-        <v>52</v>
-      </c>
-      <c r="O1" s="27">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="C5" s="4">
+        <v>60302.62</v>
+      </c>
+      <c r="D5" s="4">
+        <v>60302.62</v>
+      </c>
+      <c r="E5" s="4">
+        <v>63107.3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>87697.57</v>
+      </c>
+      <c r="G5" s="4">
+        <v>76593</v>
+      </c>
+      <c r="H5" s="4">
+        <v>90828.57</v>
+      </c>
+      <c r="I5" s="4">
+        <v>59790.8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>58227.38</v>
+      </c>
+      <c r="K5" s="4">
+        <v>93406.15</v>
+      </c>
+      <c r="L5" s="4">
+        <v>77014.399999999994</v>
+      </c>
+      <c r="M5" s="4">
+        <v>62033</v>
+      </c>
+      <c r="N5" s="4">
+        <v>62661.54</v>
+      </c>
+      <c r="O5" s="4">
+        <v>60483.199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" ref="C6:F6" si="0">+C26+C33</f>
-        <v>60302.62</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>60302.62</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>63107.3</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>87697.57</v>
-      </c>
-      <c r="G6" s="4">
-        <f>+G26+G33</f>
-        <v>76593</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" ref="H6:J6" si="1">+H26+H33</f>
-        <v>90828.57</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="1"/>
-        <v>59790.8</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>58227.38</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" ref="K6:N6" si="2">+K26+K33</f>
-        <v>93406.15</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="2"/>
-        <v>77014.399999999994</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="2"/>
-        <v>62033</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="2"/>
-        <v>62661.54</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" ref="O6" si="3">+O26+O33</f>
-        <v>60483.199999999997</v>
-      </c>
-      <c r="Q6" s="28">
-        <f>SUM(C6:P6)</f>
-        <v>912448.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4">
-        <f t="shared" ref="Q7:Q46" si="4">SUM(C7:P7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
         <v>48862.62</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D12" s="13">
         <v>48862.62</v>
       </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
         <v>62822.36</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G12" s="13">
         <v>51660</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H12" s="13">
         <v>62822.36</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I12" s="13">
         <v>51660</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J12" s="13">
         <v>51660</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K12" s="13">
         <v>66271.149999999994</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L12" s="13">
         <v>51660</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M12" s="13">
         <v>51660</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N12" s="13">
         <v>55121.36</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O12" s="13">
         <v>51660</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="4">
-        <f t="shared" si="4"/>
-        <v>654722.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
-        <v>13308</v>
-      </c>
-      <c r="G9" s="13">
-        <v>16282</v>
-      </c>
-      <c r="H9" s="13">
-        <v>18533</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13">
-        <v>18247</v>
-      </c>
-      <c r="L9" s="13">
-        <v>17564.400000000001</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="4">
-        <f t="shared" si="4"/>
-        <v>83934.399999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>3</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>-2094</v>
-      </c>
-      <c r="G10" s="13">
-        <v>-861</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>-3444</v>
-      </c>
-      <c r="J10" s="13">
-        <v>-1722</v>
-      </c>
-      <c r="K10" s="13">
-        <v>-3314</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
-        <v>-1837.5</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="4">
-        <f t="shared" si="4"/>
-        <v>-13272.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
-        <v>2094</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1722</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13">
-        <v>2209</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="4">
-        <f t="shared" si="4"/>
-        <v>6025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>5</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
-        <v>51135.3</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="4">
-        <f t="shared" si="4"/>
-        <v>51135.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>6</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>1</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13">
-        <v>2094</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+        <v>13308</v>
+      </c>
+      <c r="G13" s="13">
+        <v>16282</v>
+      </c>
+      <c r="H13" s="13">
+        <v>18533</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="K13" s="13">
+        <v>18247</v>
+      </c>
+      <c r="L13" s="13">
+        <v>17564.400000000001</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
       <c r="P13" s="12"/>
-      <c r="Q13" s="4">
-        <f t="shared" si="4"/>
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="F14" s="13">
+        <v>-2094</v>
+      </c>
+      <c r="G14" s="13">
+        <v>-861</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>-3444</v>
+      </c>
+      <c r="J14" s="13">
+        <v>-1722</v>
+      </c>
+      <c r="K14" s="13">
+        <v>-3314</v>
+      </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="N14" s="13">
+        <v>-1837.5</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
       <c r="P14" s="12"/>
-      <c r="Q14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="13">
+        <v>2094</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1722</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="13">
+        <v>2209</v>
+      </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13">
+        <v>51135.3</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -2087,22 +2099,20 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13">
+        <v>2094</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -2113,17 +2123,13 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2139,17 +2145,13 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2165,17 +2167,13 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2183,9 +2181,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13">
-        <v>1374</v>
-      </c>
+      <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2193,17 +2189,13 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="4">
-        <f t="shared" si="4"/>
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2211,37 +2203,21 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="13">
-        <v>2410.8000000000002</v>
-      </c>
-      <c r="J21" s="13">
-        <v>499.38</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="13">
-        <v>2583</v>
-      </c>
-      <c r="N21" s="13">
-        <v>1065.68</v>
-      </c>
-      <c r="O21" s="13">
-        <v>1033.2</v>
-      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="4">
-        <f t="shared" si="4"/>
-        <v>7592.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2257,17 +2233,13 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -2283,31 +2255,23 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="13">
-        <v>4072</v>
-      </c>
-      <c r="D24" s="13">
-        <v>4072</v>
-      </c>
-      <c r="E24" s="13">
-        <v>4261</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="13">
+        <v>1374</v>
+      </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -2315,17 +2279,13 @@
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="4">
-        <f t="shared" si="4"/>
-        <v>12405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -2333,88 +2293,56 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="I25" s="13">
+        <v>2410.8000000000002</v>
+      </c>
+      <c r="J25" s="13">
+        <v>499.38</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="M25" s="13">
+        <v>2583</v>
+      </c>
+      <c r="N25" s="13">
+        <v>1065.68</v>
+      </c>
+      <c r="O25" s="13">
+        <v>1033.2</v>
+      </c>
       <c r="P25" s="12"/>
-      <c r="Q25" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="19">
-        <f>SUM(C8:C25)</f>
-        <v>52934.62</v>
-      </c>
-      <c r="D26" s="19">
-        <f>SUM(D8:D25)</f>
-        <v>52934.62</v>
-      </c>
-      <c r="E26" s="19">
-        <f>SUM(E8:E25)</f>
-        <v>55396.3</v>
-      </c>
-      <c r="F26" s="19">
-        <f>SUM(F8:F25)</f>
-        <v>78224.36</v>
-      </c>
-      <c r="G26" s="19">
-        <f>SUM(G8:G25)</f>
-        <v>68803</v>
-      </c>
-      <c r="H26" s="19">
-        <f>SUM(H8:H25)</f>
-        <v>81355.360000000001</v>
-      </c>
-      <c r="I26" s="19">
-        <f>SUM(I8:I25)</f>
-        <v>52000.800000000003</v>
-      </c>
-      <c r="J26" s="19">
-        <f>SUM(J8:J25)</f>
-        <v>50437.38</v>
-      </c>
-      <c r="K26" s="19">
-        <f>SUM(K8:K25)</f>
-        <v>83413.149999999994</v>
-      </c>
-      <c r="L26" s="19">
-        <f>SUM(L8:L25)</f>
-        <v>69224.399999999994</v>
-      </c>
-      <c r="M26" s="19">
-        <f>SUM(M8:M25)</f>
-        <v>54243</v>
-      </c>
-      <c r="N26" s="19">
-        <f>SUM(N8:N25)</f>
-        <v>54349.54</v>
-      </c>
-      <c r="O26" s="19">
-        <f>SUM(O8:O25)</f>
-        <v>52693.2</v>
-      </c>
-      <c r="P26" s="19">
-        <f t="shared" ref="P26:Q26" si="5">SUM(P8:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="19">
-        <f t="shared" si="5"/>
-        <v>806009.7300000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+    </row>
+    <row r="26" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>36</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>37</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -2429,21 +2357,23 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C28" s="13">
+        <v>4072</v>
+      </c>
+      <c r="D28" s="13">
+        <v>4072</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4261</v>
+      </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2455,17 +2385,13 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2481,17 +2407,13 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2507,17 +2429,13 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2533,1026 +2451,1236 @@
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
+        <v>66</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>67</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>68</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C34" s="13">
         <v>7368</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D34" s="13">
         <v>7368</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E34" s="13">
         <v>7711</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F34" s="13">
         <v>9473.2099999999991</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G34" s="13">
         <v>7790</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H34" s="13">
         <v>9473.2099999999991</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I34" s="13">
         <v>7790</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J34" s="13">
         <v>7790</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K34" s="13">
         <v>9993</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L34" s="13">
         <v>7790</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M34" s="13">
         <v>7790</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N34" s="13">
         <v>8312</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O34" s="13">
         <v>7790</v>
       </c>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="4">
-        <f t="shared" si="4"/>
-        <v>106438.42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="19">
-        <f t="shared" ref="C33:F33" si="6">SUM(C28:C32)</f>
-        <v>7368</v>
-      </c>
-      <c r="D33" s="19">
-        <f t="shared" si="6"/>
-        <v>7368</v>
-      </c>
-      <c r="E33" s="19">
-        <f t="shared" si="6"/>
-        <v>7711</v>
-      </c>
-      <c r="F33" s="19">
-        <f t="shared" si="6"/>
-        <v>9473.2099999999991</v>
-      </c>
-      <c r="G33" s="19">
-        <f>SUM(G28:G32)</f>
-        <v>7790</v>
-      </c>
-      <c r="H33" s="19">
-        <f t="shared" ref="H33:L33" si="7">SUM(H28:H32)</f>
-        <v>9473.2099999999991</v>
-      </c>
-      <c r="I33" s="19">
-        <f t="shared" si="7"/>
-        <v>7790</v>
-      </c>
-      <c r="J33" s="19">
-        <f t="shared" si="7"/>
-        <v>7790</v>
-      </c>
-      <c r="K33" s="19">
-        <f t="shared" si="7"/>
-        <v>9993</v>
-      </c>
-      <c r="L33" s="19">
-        <f t="shared" si="7"/>
-        <v>7790</v>
-      </c>
-      <c r="M33" s="19">
-        <f t="shared" ref="M33:N33" si="8">SUM(M28:M32)</f>
-        <v>7790</v>
-      </c>
-      <c r="N33" s="19">
-        <f t="shared" si="8"/>
-        <v>8312</v>
-      </c>
-      <c r="O33" s="19">
-        <f t="shared" ref="O33:Q33" si="9">SUM(O28:O32)</f>
-        <v>7790</v>
-      </c>
-      <c r="P33" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="19">
-        <f t="shared" si="9"/>
-        <v>106438.42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
+    </row>
+    <row r="35" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>72</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1349.8328099999999</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1349.8328099999999</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1412.60565</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1994.7211799999998</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1754.4765</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2074.5616799999998</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1326.0203999999999</v>
+      </c>
+      <c r="J35" s="14">
+        <v>1286.1531899999998</v>
+      </c>
+      <c r="K35" s="14">
+        <v>2127.0353249999998</v>
+      </c>
+      <c r="L35" s="14">
+        <v>1765.2221999999997</v>
+      </c>
+      <c r="M35" s="14">
+        <v>1383.1965</v>
+      </c>
+      <c r="N35" s="14">
+        <v>1385.91327</v>
+      </c>
+      <c r="O35" s="14">
+        <v>1343.6765999999998</v>
+      </c>
       <c r="P35" s="12"/>
-      <c r="Q35" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="36" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" ref="C36:F36" si="10">+C26*0.0255</f>
-        <v>1349.8328099999999</v>
+        <v>238.20579000000001</v>
       </c>
       <c r="D36" s="14">
-        <f t="shared" si="10"/>
-        <v>1349.8328099999999</v>
+        <v>238.20579000000001</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="10"/>
-        <v>1412.60565</v>
+        <v>249.28334999999998</v>
       </c>
       <c r="F36" s="14">
-        <f t="shared" si="10"/>
-        <v>1994.7211799999998</v>
+        <v>352.00961999999998</v>
       </c>
       <c r="G36" s="14">
-        <f>+G26*0.0255</f>
-        <v>1754.4765</v>
+        <v>309.61349999999999</v>
       </c>
       <c r="H36" s="14">
-        <f t="shared" ref="H36:K36" si="11">+H26*0.0255</f>
-        <v>2074.5616799999998</v>
+        <v>366.09911999999997</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="11"/>
-        <v>1326.0203999999999</v>
+        <v>234.00360000000001</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="11"/>
-        <v>1286.1531899999998</v>
+        <v>226.96820999999997</v>
       </c>
       <c r="K36" s="14">
-        <f t="shared" si="11"/>
-        <v>2127.0353249999998</v>
+        <v>375.35917499999994</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" ref="L36:M36" si="12">+L26*0.0255</f>
-        <v>1765.2221999999997</v>
+        <v>311.50979999999993</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="12"/>
-        <v>1383.1965</v>
+        <v>244.09349999999998</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" ref="N36:O36" si="13">+N26*0.0255</f>
-        <v>1385.91327</v>
+        <v>244.57292999999999</v>
       </c>
       <c r="O36" s="14">
-        <f t="shared" si="13"/>
-        <v>1343.6765999999998</v>
+        <v>237.11939999999996</v>
       </c>
       <c r="P36" s="12"/>
-      <c r="Q36" s="4">
-        <f t="shared" si="4"/>
-        <v>20553.248114999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+    </row>
+    <row r="37" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>79</v>
+      </c>
       <c r="B37" s="12" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C37" s="14">
-        <f t="shared" ref="C37:F37" si="14">+C26*0.0045</f>
-        <v>238.20579000000001</v>
+        <v>1058.6924000000001</v>
       </c>
       <c r="D37" s="14">
-        <f t="shared" si="14"/>
-        <v>238.20579000000001</v>
+        <v>1058.6924000000001</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="14"/>
-        <v>249.28334999999998</v>
+        <v>1107.9260000000002</v>
       </c>
       <c r="F37" s="14">
-        <f t="shared" si="14"/>
-        <v>352.00961999999998</v>
+        <v>1564.4872</v>
       </c>
       <c r="G37" s="14">
-        <f>+G26*0.0045</f>
-        <v>309.61349999999999</v>
+        <v>1376.06</v>
       </c>
       <c r="H37" s="14">
-        <f t="shared" ref="H37:K37" si="15">+H26*0.0045</f>
-        <v>366.09911999999997</v>
+        <v>1627.1072000000001</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="15"/>
-        <v>234.00360000000001</v>
+        <v>1040.0160000000001</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="15"/>
-        <v>226.96820999999997</v>
+        <v>1008.7475999999999</v>
       </c>
       <c r="K37" s="14">
-        <f t="shared" si="15"/>
-        <v>375.35917499999994</v>
+        <v>1668.2629999999999</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" ref="L37:M37" si="16">+L26*0.0045</f>
-        <v>311.50979999999993</v>
+        <v>1384.4879999999998</v>
       </c>
       <c r="M37" s="14">
-        <f t="shared" si="16"/>
-        <v>244.09349999999998</v>
+        <v>1084.8600000000001</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" ref="N37:O37" si="17">+N26*0.0045</f>
-        <v>244.57292999999999</v>
+        <v>1086.9908</v>
       </c>
       <c r="O37" s="14">
-        <f t="shared" si="17"/>
-        <v>237.11939999999996</v>
+        <v>1053.864</v>
       </c>
       <c r="P37" s="12"/>
-      <c r="Q37" s="4">
-        <f t="shared" si="4"/>
-        <v>3627.0437849999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
+        <v>81</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="14">
+        <v>5822.8082000000004</v>
+      </c>
+      <c r="D38" s="14">
+        <v>5822.8082000000004</v>
+      </c>
+      <c r="E38" s="14">
+        <v>6093.5930000000008</v>
+      </c>
+      <c r="F38" s="14">
+        <v>8604.6795999999995</v>
+      </c>
+      <c r="G38" s="14">
+        <v>7568.33</v>
+      </c>
+      <c r="H38" s="14">
+        <v>8949.0895999999993</v>
+      </c>
+      <c r="I38" s="14">
+        <v>5720.0880000000006</v>
+      </c>
+      <c r="J38" s="14">
+        <v>5548.1117999999997</v>
+      </c>
+      <c r="K38" s="14">
+        <v>9175.4465</v>
+      </c>
+      <c r="L38" s="14">
+        <v>7614.6839999999993</v>
+      </c>
+      <c r="M38" s="14">
+        <v>5966.7300000000005</v>
+      </c>
+      <c r="N38" s="14">
+        <v>5978.4494000000004</v>
+      </c>
+      <c r="O38" s="14">
+        <v>5796.2519999999995</v>
+      </c>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>82</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1588.0386000000001</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1588.0386000000001</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1661.8890000000001</v>
+      </c>
+      <c r="F39" s="14">
+        <v>2346.7307999999998</v>
+      </c>
+      <c r="G39" s="14">
+        <v>2064.09</v>
+      </c>
+      <c r="H39" s="14">
+        <v>2440.6608000000001</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1560.0240000000001</v>
+      </c>
+      <c r="J39" s="14">
+        <v>1513.1213999999998</v>
+      </c>
+      <c r="K39" s="14">
+        <v>2502.3944999999999</v>
+      </c>
+      <c r="L39" s="14">
+        <v>2076.732</v>
+      </c>
+      <c r="M39" s="14">
+        <v>1627.29</v>
+      </c>
+      <c r="N39" s="14">
+        <v>1630.4862000000001</v>
+      </c>
+      <c r="O39" s="14">
+        <v>1580.7959999999998</v>
+      </c>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>83</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="14">
+        <v>397.00965000000002</v>
+      </c>
+      <c r="D40" s="14">
+        <v>397.00965000000002</v>
+      </c>
+      <c r="E40" s="14">
+        <v>415.47225000000003</v>
+      </c>
+      <c r="F40" s="14">
+        <v>586.68269999999995</v>
+      </c>
+      <c r="G40" s="14">
+        <v>516.02250000000004</v>
+      </c>
+      <c r="H40" s="14">
+        <v>610.16520000000003</v>
+      </c>
+      <c r="I40" s="14">
+        <v>390.00600000000003</v>
+      </c>
+      <c r="J40" s="14">
+        <v>378.28034999999994</v>
+      </c>
+      <c r="K40" s="14">
+        <v>625.59862499999997</v>
+      </c>
+      <c r="L40" s="14">
+        <v>519.18299999999999</v>
+      </c>
+      <c r="M40" s="14">
+        <v>406.82249999999999</v>
+      </c>
+      <c r="N40" s="14">
+        <v>407.62155000000001</v>
+      </c>
+      <c r="O40" s="14">
+        <v>395.19899999999996</v>
+      </c>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>85</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="26">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="D41" s="26">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="E41" s="26">
+        <v>154.22</v>
+      </c>
+      <c r="F41" s="26">
+        <v>189.46419999999998</v>
+      </c>
+      <c r="G41" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="H41" s="26">
+        <v>189.46419999999998</v>
+      </c>
+      <c r="I41" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="J41" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="K41" s="26">
+        <v>199.86</v>
+      </c>
+      <c r="L41" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="M41" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="N41" s="26">
+        <v>166.24</v>
+      </c>
+      <c r="O41" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="P41" s="12"/>
+    </row>
+    <row r="42" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>86</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="26">
+        <v>187.88399999999999</v>
+      </c>
+      <c r="D42" s="26">
+        <v>187.88399999999999</v>
+      </c>
+      <c r="E42" s="26">
+        <v>196.63049999999998</v>
+      </c>
+      <c r="F42" s="26">
+        <v>241.56685499999998</v>
+      </c>
+      <c r="G42" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="H42" s="26">
+        <v>241.56685499999998</v>
+      </c>
+      <c r="I42" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="J42" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="K42" s="26">
+        <v>254.82149999999999</v>
+      </c>
+      <c r="L42" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="M42" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="N42" s="26">
+        <v>211.95599999999999</v>
+      </c>
+      <c r="O42" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="43" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="26">
+        <v>33.155999999999999</v>
+      </c>
+      <c r="D43" s="26">
+        <v>33.155999999999999</v>
+      </c>
+      <c r="E43" s="26">
+        <v>34.6995</v>
+      </c>
+      <c r="F43" s="26">
+        <v>42.62944499999999</v>
+      </c>
+      <c r="G43" s="26">
+        <v>35.055</v>
+      </c>
+      <c r="H43" s="26">
+        <v>42.62944499999999</v>
+      </c>
+      <c r="I43" s="26">
+        <v>35.055</v>
+      </c>
+      <c r="J43" s="26">
+        <v>35.055</v>
+      </c>
+      <c r="K43" s="26">
+        <v>44.968499999999999</v>
+      </c>
+      <c r="L43" s="26">
+        <v>35.055</v>
+      </c>
+      <c r="M43" s="26">
+        <v>35.055</v>
+      </c>
+      <c r="N43" s="26">
+        <v>37.403999999999996</v>
+      </c>
+      <c r="O43" s="26">
+        <v>35.055</v>
+      </c>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>87</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="14">
+        <v>794.01930000000004</v>
+      </c>
+      <c r="D44" s="14">
+        <v>794.01930000000004</v>
+      </c>
+      <c r="E44" s="14">
+        <v>830.94450000000006</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1173.3653999999999</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1032.0450000000001</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1220.3304000000001</v>
+      </c>
+      <c r="I44" s="14">
+        <v>780.01200000000006</v>
+      </c>
+      <c r="J44" s="14">
+        <v>756.56069999999988</v>
+      </c>
+      <c r="K44" s="14">
+        <v>1251.1972499999999</v>
+      </c>
+      <c r="L44" s="14">
+        <v>1038.366</v>
+      </c>
+      <c r="M44" s="14">
+        <v>813.64499999999998</v>
+      </c>
+      <c r="N44" s="14">
+        <v>815.24310000000003</v>
+      </c>
+      <c r="O44" s="14">
+        <v>790.39799999999991</v>
+      </c>
+      <c r="P44" s="12"/>
+    </row>
+    <row r="45" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>91</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="14">
+        <v>550</v>
+      </c>
+      <c r="D45" s="14">
+        <v>550</v>
+      </c>
+      <c r="E45" s="14">
+        <v>550</v>
+      </c>
+      <c r="F45" s="14">
+        <v>700</v>
+      </c>
+      <c r="G45" s="14">
+        <v>550</v>
+      </c>
+      <c r="H45" s="14">
+        <v>800</v>
+      </c>
+      <c r="I45" s="14">
+        <v>550</v>
+      </c>
+      <c r="J45" s="14">
+        <v>0</v>
+      </c>
+      <c r="K45" s="14">
+        <v>800</v>
+      </c>
+      <c r="L45" s="14">
+        <v>800</v>
+      </c>
+      <c r="M45" s="14">
+        <v>2800</v>
+      </c>
+      <c r="N45" s="14">
+        <v>3100</v>
+      </c>
+      <c r="O45" s="14">
+        <v>5509</v>
+      </c>
+      <c r="P45" s="12"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="D46" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="E46" s="6">
+        <v>55396.3</v>
+      </c>
+      <c r="F46" s="6">
+        <v>78224</v>
+      </c>
+      <c r="G46" s="6">
+        <v>68803</v>
+      </c>
+      <c r="H46" s="6">
+        <v>81355.360000000001</v>
+      </c>
+      <c r="I46" s="6">
+        <v>52000.800000000003</v>
+      </c>
+      <c r="J46" s="6">
+        <v>50437.38</v>
+      </c>
+      <c r="K46" s="6">
+        <v>83413.149999999994</v>
+      </c>
+      <c r="L46" s="6">
+        <v>69224.399999999994</v>
+      </c>
+      <c r="M46" s="6">
+        <v>54243</v>
+      </c>
+      <c r="N46" s="6">
+        <v>54349.54</v>
+      </c>
+      <c r="O46" s="6">
+        <v>52693.2</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="D47" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="E47" s="6">
+        <v>55396.3</v>
+      </c>
+      <c r="F47" s="6">
+        <v>78224</v>
+      </c>
+      <c r="G47" s="6">
+        <v>68803</v>
+      </c>
+      <c r="H47" s="6">
+        <v>81355.360000000001</v>
+      </c>
+      <c r="I47" s="6">
+        <v>52000.800000000003</v>
+      </c>
+      <c r="J47" s="6">
+        <v>50437.38</v>
+      </c>
+      <c r="K47" s="6">
+        <v>83413.149999999994</v>
+      </c>
+      <c r="L47" s="6">
+        <v>69224.399999999994</v>
+      </c>
+      <c r="M47" s="6">
+        <v>54243</v>
+      </c>
+      <c r="N47" s="6">
+        <v>54349.54</v>
+      </c>
+      <c r="O47" s="6">
+        <v>52693.2</v>
+      </c>
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="14">
-        <f t="shared" ref="C38:F38" si="18">+C26*0.02</f>
-        <v>1058.6924000000001</v>
-      </c>
-      <c r="D38" s="14">
-        <f t="shared" si="18"/>
-        <v>1058.6924000000001</v>
-      </c>
-      <c r="E38" s="14">
-        <f t="shared" si="18"/>
-        <v>1107.9260000000002</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="18"/>
-        <v>1564.4872</v>
-      </c>
-      <c r="G38" s="14">
-        <f>+G26*0.02</f>
-        <v>1376.06</v>
-      </c>
-      <c r="H38" s="14">
-        <f t="shared" ref="H38:K38" si="19">+H26*0.02</f>
-        <v>1627.1072000000001</v>
-      </c>
-      <c r="I38" s="14">
-        <f t="shared" si="19"/>
-        <v>1040.0160000000001</v>
-      </c>
-      <c r="J38" s="14">
-        <f t="shared" si="19"/>
-        <v>1008.7475999999999</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="19"/>
-        <v>1668.2629999999999</v>
-      </c>
-      <c r="L38" s="14">
-        <f t="shared" ref="L38:M38" si="20">+L26*0.02</f>
-        <v>1384.4879999999998</v>
-      </c>
-      <c r="M38" s="14">
-        <f t="shared" si="20"/>
-        <v>1084.8600000000001</v>
-      </c>
-      <c r="N38" s="14">
-        <f t="shared" ref="N38:O38" si="21">+N26*0.02</f>
-        <v>1086.9908</v>
-      </c>
-      <c r="O38" s="14">
-        <f t="shared" si="21"/>
-        <v>1053.864</v>
-      </c>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="4">
-        <f t="shared" si="4"/>
-        <v>16120.194599999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="D48" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="E48" s="6">
+        <v>55396.3</v>
+      </c>
+      <c r="F48" s="6">
+        <v>78224</v>
+      </c>
+      <c r="G48" s="6">
+        <v>68803</v>
+      </c>
+      <c r="H48" s="6">
+        <v>81355.360000000001</v>
+      </c>
+      <c r="I48" s="6">
+        <v>52000.800000000003</v>
+      </c>
+      <c r="J48" s="6">
+        <v>50437.38</v>
+      </c>
+      <c r="K48" s="6">
+        <v>83413.149999999994</v>
+      </c>
+      <c r="L48" s="6">
+        <v>69224.399999999994</v>
+      </c>
+      <c r="M48" s="6">
+        <v>54243</v>
+      </c>
+      <c r="N48" s="6">
+        <v>54349.54</v>
+      </c>
+      <c r="O48" s="6">
+        <v>52693.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="14">
-        <f t="shared" ref="C39:F39" si="22">+C26*0.11</f>
-        <v>5822.8082000000004</v>
-      </c>
-      <c r="D39" s="14">
-        <f t="shared" si="22"/>
-        <v>5822.8082000000004</v>
-      </c>
-      <c r="E39" s="14">
-        <f t="shared" si="22"/>
-        <v>6093.5930000000008</v>
-      </c>
-      <c r="F39" s="14">
-        <f t="shared" si="22"/>
-        <v>8604.6795999999995</v>
-      </c>
-      <c r="G39" s="14">
-        <f>+G26*0.11</f>
-        <v>7568.33</v>
-      </c>
-      <c r="H39" s="14">
-        <f t="shared" ref="H39:K39" si="23">+H26*0.11</f>
-        <v>8949.0895999999993</v>
-      </c>
-      <c r="I39" s="14">
-        <f t="shared" si="23"/>
-        <v>5720.0880000000006</v>
-      </c>
-      <c r="J39" s="14">
-        <f t="shared" si="23"/>
-        <v>5548.1117999999997</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="shared" si="23"/>
-        <v>9175.4465</v>
-      </c>
-      <c r="L39" s="14">
-        <f t="shared" ref="L39:M39" si="24">+L26*0.11</f>
-        <v>7614.6839999999993</v>
-      </c>
-      <c r="M39" s="14">
-        <f t="shared" si="24"/>
-        <v>5966.7300000000005</v>
-      </c>
-      <c r="N39" s="14">
-        <f t="shared" ref="N39:O39" si="25">+N26*0.11</f>
-        <v>5978.4494000000004</v>
-      </c>
-      <c r="O39" s="14">
-        <f t="shared" si="25"/>
-        <v>5796.2519999999995</v>
-      </c>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="4">
-        <f t="shared" si="4"/>
-        <v>88661.070299999978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="B49" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="14">
-        <f t="shared" ref="C40:F40" si="26">+C26*0.03</f>
-        <v>1588.0386000000001</v>
-      </c>
-      <c r="D40" s="14">
-        <f t="shared" si="26"/>
-        <v>1588.0386000000001</v>
-      </c>
-      <c r="E40" s="14">
-        <f t="shared" si="26"/>
-        <v>1661.8890000000001</v>
-      </c>
-      <c r="F40" s="14">
-        <f t="shared" si="26"/>
-        <v>2346.7307999999998</v>
-      </c>
-      <c r="G40" s="14">
-        <f>+G26*0.03</f>
-        <v>2064.09</v>
-      </c>
-      <c r="H40" s="14">
-        <f t="shared" ref="H40:K40" si="27">+H26*0.03</f>
-        <v>2440.6608000000001</v>
-      </c>
-      <c r="I40" s="14">
-        <f t="shared" si="27"/>
-        <v>1560.0240000000001</v>
-      </c>
-      <c r="J40" s="14">
-        <f t="shared" si="27"/>
-        <v>1513.1213999999998</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="27"/>
-        <v>2502.3944999999999</v>
-      </c>
-      <c r="L40" s="14">
-        <f t="shared" ref="L40:M40" si="28">+L26*0.03</f>
-        <v>2076.732</v>
-      </c>
-      <c r="M40" s="14">
-        <f t="shared" si="28"/>
-        <v>1627.29</v>
-      </c>
-      <c r="N40" s="14">
-        <f t="shared" ref="N40:O40" si="29">+N26*0.03</f>
-        <v>1630.4862000000001</v>
-      </c>
-      <c r="O40" s="14">
-        <f t="shared" si="29"/>
-        <v>1580.7959999999998</v>
-      </c>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="4">
-        <f t="shared" si="4"/>
-        <v>24180.291899999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="C49" s="6">
+        <v>60302.62</v>
+      </c>
+      <c r="D49" s="6">
+        <v>60302.62</v>
+      </c>
+      <c r="E49" s="6">
+        <v>63107.5</v>
+      </c>
+      <c r="F49" s="6">
+        <v>87697.21</v>
+      </c>
+      <c r="G49" s="6">
+        <v>76593</v>
+      </c>
+      <c r="H49" s="6">
+        <v>90828.57</v>
+      </c>
+      <c r="I49" s="6">
+        <v>59790.8</v>
+      </c>
+      <c r="J49" s="6">
+        <v>58227.38</v>
+      </c>
+      <c r="K49" s="6">
+        <v>93406.15</v>
+      </c>
+      <c r="L49" s="6">
+        <v>77014.399999999994</v>
+      </c>
+      <c r="M49" s="6">
+        <v>62033</v>
+      </c>
+      <c r="N49" s="6">
+        <v>62661.54</v>
+      </c>
+      <c r="O49" s="6">
+        <v>60483.199999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="14">
-        <f t="shared" ref="C41:F41" si="30">+C26*0.0075</f>
-        <v>397.00965000000002</v>
-      </c>
-      <c r="D41" s="14">
-        <f t="shared" si="30"/>
-        <v>397.00965000000002</v>
-      </c>
-      <c r="E41" s="14">
-        <f t="shared" si="30"/>
-        <v>415.47225000000003</v>
-      </c>
-      <c r="F41" s="14">
-        <f t="shared" si="30"/>
-        <v>586.68269999999995</v>
-      </c>
-      <c r="G41" s="14">
-        <f>+G26*0.0075</f>
-        <v>516.02250000000004</v>
-      </c>
-      <c r="H41" s="14">
-        <f t="shared" ref="H41:K41" si="31">+H26*0.0075</f>
-        <v>610.16520000000003</v>
-      </c>
-      <c r="I41" s="14">
-        <f t="shared" si="31"/>
-        <v>390.00600000000003</v>
-      </c>
-      <c r="J41" s="14">
-        <f t="shared" si="31"/>
-        <v>378.28034999999994</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="shared" si="31"/>
-        <v>625.59862499999997</v>
-      </c>
-      <c r="L41" s="14">
-        <f t="shared" ref="L41:M41" si="32">+L26*0.0075</f>
-        <v>519.18299999999999</v>
-      </c>
-      <c r="M41" s="14">
-        <f t="shared" si="32"/>
-        <v>406.82249999999999</v>
-      </c>
-      <c r="N41" s="14">
-        <f t="shared" ref="N41:O41" si="33">+N26*0.0075</f>
-        <v>407.62155000000001</v>
-      </c>
-      <c r="O41" s="14">
-        <f t="shared" si="33"/>
-        <v>395.19899999999996</v>
-      </c>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="4">
-        <f t="shared" si="4"/>
-        <v>6045.0729749999991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="B50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="6">
+        <v>62934.62</v>
+      </c>
+      <c r="D50" s="6">
+        <v>62934.62</v>
+      </c>
+      <c r="E50" s="6">
+        <v>55396.3</v>
+      </c>
+      <c r="F50" s="6">
+        <v>78224</v>
+      </c>
+      <c r="G50" s="6">
+        <v>68803</v>
+      </c>
+      <c r="H50" s="6">
+        <v>81355.360000000001</v>
+      </c>
+      <c r="I50" s="6">
+        <v>52000.800000000003</v>
+      </c>
+      <c r="J50" s="6">
+        <v>50437.38</v>
+      </c>
+      <c r="K50" s="6">
+        <v>83413.149999999994</v>
+      </c>
+      <c r="L50" s="6">
+        <v>69224.399999999994</v>
+      </c>
+      <c r="M50" s="6">
+        <v>54243</v>
+      </c>
+      <c r="N50" s="6">
+        <v>54349.54</v>
+      </c>
+      <c r="O50" s="6">
+        <v>52693.2</v>
+      </c>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="26">
-        <f>+C33*0.02</f>
-        <v>147.36000000000001</v>
-      </c>
-      <c r="D42" s="26">
-        <f>+D33*0.02</f>
-        <v>147.36000000000001</v>
-      </c>
-      <c r="E42" s="26">
-        <f>+E33*0.02</f>
-        <v>154.22</v>
-      </c>
-      <c r="F42" s="26">
-        <f>+F33*0.02</f>
-        <v>189.46419999999998</v>
-      </c>
-      <c r="G42" s="26">
-        <f>+G33*0.02</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="H42" s="26">
-        <f>+H33*0.02</f>
-        <v>189.46419999999998</v>
-      </c>
-      <c r="I42" s="26">
-        <f>+I33*0.02</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="J42" s="26">
-        <f>+J33*0.02</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="K42" s="26">
-        <f>+K33*0.02</f>
-        <v>199.86</v>
-      </c>
-      <c r="L42" s="26">
-        <f>+L33*0.02</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="M42" s="26">
-        <f>+M33*0.02</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="N42" s="26">
-        <f>+N33*0.02</f>
-        <v>166.24</v>
-      </c>
-      <c r="O42" s="26">
-        <f>+O33*0.02</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="4">
-        <f t="shared" si="4"/>
-        <v>2128.7683999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="26">
-        <f>+C33*0.0255</f>
-        <v>187.88399999999999</v>
-      </c>
-      <c r="D43" s="26">
-        <f>+D33*0.0255</f>
-        <v>187.88399999999999</v>
-      </c>
-      <c r="E43" s="26">
-        <f>+E33*0.0255</f>
-        <v>196.63049999999998</v>
-      </c>
-      <c r="F43" s="26">
-        <f>+F33*0.0255</f>
-        <v>241.56685499999998</v>
-      </c>
-      <c r="G43" s="26">
-        <f>+G33*0.0255</f>
-        <v>198.64499999999998</v>
-      </c>
-      <c r="H43" s="26">
-        <f>+H33*0.0255</f>
-        <v>241.56685499999998</v>
-      </c>
-      <c r="I43" s="26">
-        <f>+I33*0.0255</f>
-        <v>198.64499999999998</v>
-      </c>
-      <c r="J43" s="26">
-        <f>+J33*0.0255</f>
-        <v>198.64499999999998</v>
-      </c>
-      <c r="K43" s="26">
-        <f>+K33*0.0255</f>
-        <v>254.82149999999999</v>
-      </c>
-      <c r="L43" s="26">
-        <f>+L33*0.0255</f>
-        <v>198.64499999999998</v>
-      </c>
-      <c r="M43" s="26">
-        <f>+M33*0.0255</f>
-        <v>198.64499999999998</v>
-      </c>
-      <c r="N43" s="26">
-        <f>+N33*0.0255</f>
-        <v>211.95599999999999</v>
-      </c>
-      <c r="O43" s="26">
-        <f>+O33*0.0255</f>
-        <v>198.64499999999998</v>
-      </c>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="4">
-        <f t="shared" si="4"/>
-        <v>2714.1797100000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="26">
-        <f>+C33*0.0045</f>
-        <v>33.155999999999999</v>
-      </c>
-      <c r="D44" s="26">
-        <f>+D33*0.0045</f>
-        <v>33.155999999999999</v>
-      </c>
-      <c r="E44" s="26">
-        <f>+E33*0.0045</f>
-        <v>34.6995</v>
-      </c>
-      <c r="F44" s="26">
-        <f>+F33*0.0045</f>
-        <v>42.62944499999999</v>
-      </c>
-      <c r="G44" s="26">
-        <f>+G33*0.0045</f>
-        <v>35.055</v>
-      </c>
-      <c r="H44" s="26">
-        <f>+H33*0.0045</f>
-        <v>42.62944499999999</v>
-      </c>
-      <c r="I44" s="26">
-        <f>+I33*0.0045</f>
-        <v>35.055</v>
-      </c>
-      <c r="J44" s="26">
-        <f>+J33*0.0045</f>
-        <v>35.055</v>
-      </c>
-      <c r="K44" s="26">
-        <f>+K33*0.0045</f>
-        <v>44.968499999999999</v>
-      </c>
-      <c r="L44" s="26">
-        <f>+L33*0.0045</f>
-        <v>35.055</v>
-      </c>
-      <c r="M44" s="26">
-        <f>+M33*0.0045</f>
-        <v>35.055</v>
-      </c>
-      <c r="N44" s="26">
-        <f>+N33*0.0045</f>
-        <v>37.403999999999996</v>
-      </c>
-      <c r="O44" s="26">
-        <f>+O33*0.0045</f>
-        <v>35.055</v>
-      </c>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="4">
-        <f t="shared" si="4"/>
-        <v>478.97289000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="14">
-        <f t="shared" ref="C45:F45" si="34">+C26*0.015</f>
-        <v>794.01930000000004</v>
-      </c>
-      <c r="D45" s="14">
-        <f t="shared" si="34"/>
-        <v>794.01930000000004</v>
-      </c>
-      <c r="E45" s="14">
-        <f t="shared" si="34"/>
-        <v>830.94450000000006</v>
-      </c>
-      <c r="F45" s="14">
-        <f t="shared" si="34"/>
-        <v>1173.3653999999999</v>
-      </c>
-      <c r="G45" s="14">
-        <f>+G26*0.015</f>
-        <v>1032.0450000000001</v>
-      </c>
-      <c r="H45" s="14">
-        <f t="shared" ref="H45:K45" si="35">+H26*0.015</f>
-        <v>1220.3304000000001</v>
-      </c>
-      <c r="I45" s="14">
-        <f t="shared" si="35"/>
-        <v>780.01200000000006</v>
-      </c>
-      <c r="J45" s="14">
-        <f t="shared" si="35"/>
-        <v>756.56069999999988</v>
-      </c>
-      <c r="K45" s="14">
-        <f t="shared" si="35"/>
-        <v>1251.1972499999999</v>
-      </c>
-      <c r="L45" s="14">
-        <f t="shared" ref="L45:M45" si="36">+L26*0.015</f>
-        <v>1038.366</v>
-      </c>
-      <c r="M45" s="14">
-        <f t="shared" si="36"/>
-        <v>813.64499999999998</v>
-      </c>
-      <c r="N45" s="14">
-        <f t="shared" ref="N45:O45" si="37">+N26*0.015</f>
-        <v>815.24310000000003</v>
-      </c>
-      <c r="O45" s="14">
-        <f t="shared" si="37"/>
-        <v>790.39799999999991</v>
-      </c>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="4">
-        <f t="shared" si="4"/>
-        <v>12090.145949999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="6">
+        <v>60302.62</v>
+      </c>
+      <c r="D53" s="6">
+        <v>60302.62</v>
+      </c>
+      <c r="E53" s="6">
+        <v>63107.5</v>
+      </c>
+      <c r="F53" s="6">
+        <v>87697.21</v>
+      </c>
+      <c r="G53" s="6">
+        <v>76593</v>
+      </c>
+      <c r="H53" s="6">
+        <v>90828.57</v>
+      </c>
+      <c r="I53" s="6">
+        <v>59790.8</v>
+      </c>
+      <c r="J53" s="6">
+        <v>58227.38</v>
+      </c>
+      <c r="K53" s="6">
+        <v>93406.15</v>
+      </c>
+      <c r="L53" s="6">
+        <v>77014.399999999994</v>
+      </c>
+      <c r="M53" s="6">
+        <v>62033</v>
+      </c>
+      <c r="N53" s="6">
+        <v>62661.54</v>
+      </c>
+      <c r="O53" s="6">
+        <v>60483.199999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="14">
-        <v>550</v>
-      </c>
-      <c r="D46" s="14">
-        <v>550</v>
-      </c>
-      <c r="E46" s="14">
-        <v>550</v>
-      </c>
-      <c r="F46" s="14">
-        <v>700</v>
-      </c>
-      <c r="G46" s="14">
-        <v>550</v>
-      </c>
-      <c r="H46" s="14">
-        <v>800</v>
-      </c>
-      <c r="I46" s="14">
-        <v>550</v>
-      </c>
-      <c r="J46" s="14">
-        <v>0</v>
-      </c>
-      <c r="K46" s="14">
-        <v>800</v>
-      </c>
-      <c r="L46" s="14">
-        <v>800</v>
-      </c>
-      <c r="M46" s="14">
-        <v>2800</v>
-      </c>
-      <c r="N46" s="14">
-        <v>3100</v>
-      </c>
-      <c r="O46" s="14">
-        <v>5509</v>
-      </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="4">
-        <f t="shared" si="4"/>
-        <v>17259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="19">
-        <f>SUM(C36:C46)</f>
-        <v>12167.00675</v>
-      </c>
-      <c r="D47" s="19">
-        <f>SUM(D36:D46)</f>
-        <v>12167.00675</v>
-      </c>
-      <c r="E47" s="19">
-        <f>SUM(E36:E46)</f>
-        <v>12707.263750000002</v>
-      </c>
-      <c r="F47" s="19">
-        <f>SUM(F36:F46)</f>
-        <v>17796.337</v>
-      </c>
-      <c r="G47" s="19">
-        <f>SUM(G36:G46)</f>
-        <v>15560.137499999999</v>
-      </c>
-      <c r="H47" s="19">
-        <f>SUM(H36:H46)</f>
-        <v>18561.674499999997</v>
-      </c>
-      <c r="I47" s="19">
-        <f>SUM(I36:I46)</f>
-        <v>11989.67</v>
-      </c>
-      <c r="J47" s="19">
-        <f>SUM(J36:J46)</f>
-        <v>11107.443249999998</v>
-      </c>
-      <c r="K47" s="19">
-        <f>SUM(K36:K46)</f>
-        <v>19024.944374999999</v>
-      </c>
-      <c r="L47" s="19">
-        <f>SUM(L36:L46)</f>
-        <v>15899.684999999999</v>
-      </c>
-      <c r="M47" s="19">
-        <f>SUM(M36:M46)</f>
-        <v>14716.137500000003</v>
-      </c>
-      <c r="N47" s="19">
-        <f>SUM(N36:N46)</f>
-        <v>15064.87725</v>
-      </c>
-      <c r="O47" s="19">
-        <f>SUM(O36:O46)</f>
-        <v>17095.805</v>
-      </c>
-      <c r="P47" s="19">
-        <f>SUM(P36:P46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="19">
-        <f>SUM(Q36:Q46)</f>
-        <v>193857.98862499997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="2">
-        <f>+C26+C33-C47</f>
-        <v>48135.613250000002</v>
-      </c>
-      <c r="D48" s="2">
-        <f>+D26+D33-D47</f>
-        <v>48135.613250000002</v>
-      </c>
-      <c r="E48" s="2">
-        <f>+E26+E33-E47</f>
-        <v>50400.036250000005</v>
-      </c>
-      <c r="F48" s="2">
-        <f>+F26+F33-F47</f>
-        <v>69901.233000000007</v>
-      </c>
-      <c r="G48" s="2">
-        <f>+G26+G33-G47</f>
-        <v>61032.862500000003</v>
-      </c>
-      <c r="H48" s="2">
-        <f>+H26+H33-H47</f>
-        <v>72266.895500000013</v>
-      </c>
-      <c r="I48" s="2">
-        <f>+I26+I33-I47</f>
-        <v>47801.130000000005</v>
-      </c>
-      <c r="J48" s="2">
-        <f>+J26+J33-J47</f>
-        <v>47119.936750000001</v>
-      </c>
-      <c r="K48" s="2">
-        <f>+K26+K33-K47</f>
-        <v>74381.205625000002</v>
-      </c>
-      <c r="L48" s="2">
-        <f>+L26+L33-L47</f>
-        <v>61114.714999999997</v>
-      </c>
-      <c r="M48" s="2">
-        <f>+M26+M33-M47</f>
-        <v>47316.862499999996</v>
-      </c>
-      <c r="N48" s="2">
-        <f>+N26+N33-N47</f>
-        <v>47596.662750000003</v>
-      </c>
-      <c r="O48" s="2">
-        <f>+O26+O33-O47</f>
-        <v>43387.394999999997</v>
-      </c>
-      <c r="P48" s="2">
-        <f>+P26+P33-P47</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <f>+Q26+Q33-Q47</f>
-        <v>718590.16137500014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-    </row>
-    <row r="54" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="6">
+        <v>60302.62</v>
+      </c>
+      <c r="D54" s="6">
+        <v>60302.62</v>
+      </c>
+      <c r="E54" s="6">
+        <v>63107.5</v>
+      </c>
+      <c r="F54" s="6">
+        <v>87697.21</v>
+      </c>
+      <c r="G54" s="6">
+        <v>76593</v>
+      </c>
+      <c r="H54" s="6">
+        <v>90828.57</v>
+      </c>
+      <c r="I54" s="6">
+        <v>59790.8</v>
+      </c>
+      <c r="J54" s="6">
+        <v>58227.38</v>
+      </c>
+      <c r="K54" s="6">
+        <v>93406.15</v>
+      </c>
+      <c r="L54" s="6">
+        <v>77014.399999999994</v>
+      </c>
+      <c r="M54" s="6">
+        <v>62033</v>
+      </c>
+      <c r="N54" s="6">
+        <v>61661.54</v>
+      </c>
+      <c r="O54" s="6">
+        <v>60483.199999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="D56" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="E56" s="6">
+        <v>55396.3</v>
+      </c>
+      <c r="F56" s="6">
+        <v>78224</v>
+      </c>
+      <c r="G56" s="6">
+        <v>68803</v>
+      </c>
+      <c r="H56" s="6">
+        <v>81355.360000000001</v>
+      </c>
+      <c r="I56" s="6">
+        <v>52000.800000000003</v>
+      </c>
+      <c r="J56" s="6">
+        <v>50437.38</v>
+      </c>
+      <c r="K56" s="6">
+        <v>83413.149999999994</v>
+      </c>
+      <c r="L56" s="6">
+        <v>69224.399999999994</v>
+      </c>
+      <c r="M56" s="6">
+        <v>54243</v>
+      </c>
+      <c r="N56" s="6">
+        <v>54349.54</v>
+      </c>
+      <c r="O56" s="6">
+        <v>52693.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="6">
+        <v>45930.94</v>
+      </c>
+      <c r="D57" s="6">
+        <v>45930.94</v>
+      </c>
+      <c r="E57" s="6">
+        <v>48392.62</v>
+      </c>
+      <c r="F57" s="6">
+        <v>71220.320000000007</v>
+      </c>
+      <c r="G57" s="6">
+        <v>61799.32</v>
+      </c>
+      <c r="H57" s="6">
+        <v>74351.679999999993</v>
+      </c>
+      <c r="I57" s="6">
+        <v>44997.120000000003</v>
+      </c>
+      <c r="J57" s="6">
+        <v>43433.7</v>
+      </c>
+      <c r="K57" s="6">
+        <v>76409.47</v>
+      </c>
+      <c r="L57" s="6">
+        <v>62220.72</v>
+      </c>
+      <c r="M57" s="6">
+        <v>47239.32</v>
+      </c>
+      <c r="N57" s="6">
+        <v>47345.86</v>
+      </c>
+      <c r="O57" s="6">
+        <v>60483.199999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="D58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="E58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="F58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="G58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="H58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="I58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="J58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="K58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="L58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="M58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="N58" s="6">
+        <v>7003.68</v>
+      </c>
+      <c r="O58" s="6">
+        <v>7003.68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.53" right="0.37" top="0.28999999999999998" bottom="0.34" header="0.3" footer="0.3"/>

--- a/documentos/MODELO LIBRO SUELDO DIGITAL FINAL octubre 2021.xlsx
+++ b/documentos/MODELO LIBRO SUELDO DIGITAL FINAL octubre 2021.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2341DF1-3637-4266-B621-185A5899EC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8AD41-435B-4A78-B8C4-92EA960DF18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIGINAL" sheetId="3" r:id="rId1"/>
-    <sheet name="octubre21" sheetId="2" r:id="rId2"/>
+    <sheet name="hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="sept" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
   <si>
     <t>SUELDO</t>
   </si>
@@ -343,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +376,15 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,7 +442,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -506,6 +515,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,11 +1662,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7FFAD-1B0A-42C5-95C8-94CD4283EDB6}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O46" sqref="O46:O58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,15 +1674,16 @@
     <col min="1" max="1" width="13.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="46" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="46" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="40" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
-    <col min="12" max="15" width="14.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="46" customWidth="1"/>
+    <col min="13" max="15" width="14.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1643,16 +1694,16 @@
       <c r="C1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="42" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="42" t="s">
         <v>53</v>
       </c>
       <c r="H1" s="24" t="s">
@@ -1661,13 +1712,13 @@
       <c r="I1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="32" t="s">
         <v>56</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="42" t="s">
         <v>65</v>
       </c>
       <c r="M1" s="24" t="s">
@@ -1687,16 +1738,16 @@
       <c r="C2" s="3">
         <v>23373230529</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="33">
         <v>20412270089</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="43">
         <v>20363899952</v>
       </c>
       <c r="F2" s="3">
         <v>20280474682</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="43">
         <v>20177508293</v>
       </c>
       <c r="H2" s="3">
@@ -1705,13 +1756,13 @@
       <c r="I2" s="31">
         <v>20302390224</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="33">
         <v>20397771262</v>
       </c>
       <c r="K2" s="3">
         <v>20222706042</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="43">
         <v>20146494669</v>
       </c>
       <c r="M2" s="3">
@@ -1726,157 +1777,233 @@
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C3" s="4">
         <v>60302.62</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D3" s="34">
         <v>60302.62</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E3" s="25">
         <v>63107.3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F3" s="4">
         <v>87697.57</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G3" s="25">
         <v>76593</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H3" s="4">
         <v>90828.57</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I3" s="4">
         <v>59790.8</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J3" s="34">
         <v>58227.38</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K3" s="4">
         <v>93406.15</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L3" s="25">
         <v>77014.399999999994</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M3" s="4">
         <v>62033</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N3" s="4">
         <v>62661.54</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O3" s="4">
         <v>60483.199999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
         <v>38</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="29">
+        <v>30</v>
+      </c>
+      <c r="D4" s="35">
+        <v>30</v>
+      </c>
+      <c r="E4" s="44">
+        <v>30</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0</v>
+      </c>
+      <c r="L4" s="44">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0</v>
+      </c>
+      <c r="N4" s="29">
+        <v>0</v>
+      </c>
+      <c r="O4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
+      <c r="J5" s="35">
+        <v>0</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+      <c r="L5" s="44">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29">
+        <v>0</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0</v>
+      </c>
+      <c r="O5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="35">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="44">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0</v>
+      </c>
+      <c r="N6" s="29">
+        <v>0</v>
+      </c>
+      <c r="O6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="29">
+        <v>72</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <v>0</v>
+      </c>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="30">
+        <v>0</v>
+      </c>
+      <c r="O7" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1885,192 +2012,290 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="35">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="44">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="29">
-        <v>0</v>
-      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="35">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="44">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29">
+        <v>0</v>
+      </c>
+      <c r="N9" s="29">
+        <v>0</v>
+      </c>
+      <c r="O9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>48862.62</v>
+      </c>
+      <c r="D10" s="19">
+        <v>48862.62</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>62822.36</v>
+      </c>
+      <c r="G10" s="46">
+        <v>51660</v>
+      </c>
+      <c r="H10" s="13">
+        <v>62822.36</v>
+      </c>
+      <c r="I10" s="13">
+        <v>51660</v>
+      </c>
+      <c r="J10" s="19">
+        <v>51660</v>
+      </c>
+      <c r="K10" s="13">
+        <v>66271.149999999994</v>
+      </c>
+      <c r="L10" s="46">
+        <v>51660</v>
+      </c>
+      <c r="M10" s="13">
+        <v>51660</v>
+      </c>
+      <c r="N10" s="13">
+        <v>55121.36</v>
+      </c>
+      <c r="O10" s="13">
+        <v>51660</v>
+      </c>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="13">
+        <v>13308</v>
+      </c>
+      <c r="G11" s="46">
+        <v>16282</v>
+      </c>
+      <c r="H11" s="13">
+        <v>18533</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="13">
+        <v>18247</v>
+      </c>
+      <c r="L11" s="46">
+        <v>17564.400000000001</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
-        <v>48862.62</v>
-      </c>
-      <c r="D12" s="13">
-        <v>48862.62</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="13">
-        <v>62822.36</v>
-      </c>
-      <c r="G12" s="13">
-        <v>51660</v>
+        <v>-2094</v>
+      </c>
+      <c r="G12" s="46">
+        <v>-861</v>
       </c>
       <c r="H12" s="13">
-        <v>62822.36</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="J12" s="13">
-        <v>51660</v>
+        <v>-3444</v>
+      </c>
+      <c r="J12" s="19">
+        <v>-1722</v>
       </c>
       <c r="K12" s="13">
-        <v>66271.149999999994</v>
-      </c>
-      <c r="L12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="M12" s="13">
-        <v>51660</v>
-      </c>
+        <v>-3314</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="13">
-        <v>55121.36</v>
+        <v>-1837.5</v>
       </c>
       <c r="O12" s="13">
-        <v>51660</v>
+        <v>0</v>
       </c>
       <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="13">
-        <v>13308</v>
-      </c>
-      <c r="G13" s="13">
-        <v>16282</v>
-      </c>
-      <c r="H13" s="13">
-        <v>18533</v>
-      </c>
+        <v>2094</v>
+      </c>
+      <c r="G13" s="46">
+        <v>1722</v>
+      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="13">
-        <v>18247</v>
-      </c>
-      <c r="L13" s="13">
-        <v>17564.400000000001</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
+        <v>2209</v>
+      </c>
+      <c r="L13" s="46"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
-        <v>-2094</v>
-      </c>
-      <c r="G14" s="13">
-        <v>-861</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>-3444</v>
-      </c>
-      <c r="J14" s="13">
-        <v>-1722</v>
-      </c>
-      <c r="K14" s="13">
-        <v>-3314</v>
-      </c>
-      <c r="L14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="46">
+        <v>51135.3</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="13">
-        <v>-1837.5</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="13">
         <v>2094</v>
       </c>
-      <c r="G15" s="13">
-        <v>1722</v>
-      </c>
+      <c r="G15" s="46"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13">
-        <v>2209</v>
-      </c>
-      <c r="L15" s="13"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -2078,23 +2303,21 @@
     </row>
     <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
-        <v>51135.3</v>
-      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -2102,23 +2325,21 @@
     </row>
     <row r="17" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
-        <v>2094</v>
-      </c>
-      <c r="G17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -2126,21 +2347,21 @@
     </row>
     <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -2148,21 +2369,21 @@
     </row>
     <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -2170,21 +2391,21 @@
     </row>
     <row r="20" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -2192,21 +2413,21 @@
     </row>
     <row r="21" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -2214,21 +2435,23 @@
     </row>
     <row r="22" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="13">
+        <v>1374</v>
+      </c>
+      <c r="J22" s="19"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -2236,45 +2459,55 @@
     </row>
     <row r="23" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="I23" s="13">
+        <v>2410.8000000000002</v>
+      </c>
+      <c r="J23" s="19">
+        <v>499.38</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="13">
+        <v>2583</v>
+      </c>
+      <c r="N23" s="13">
+        <v>1065.68</v>
+      </c>
+      <c r="O23" s="13">
+        <v>1033.2</v>
+      </c>
       <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13">
-        <v>1374</v>
-      </c>
-      <c r="J24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -2282,55 +2515,49 @@
     </row>
     <row r="25" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="13">
-        <v>2410.8000000000002</v>
-      </c>
-      <c r="J25" s="13">
-        <v>499.38</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13">
-        <v>2583</v>
-      </c>
-      <c r="N25" s="13">
-        <v>1065.68</v>
-      </c>
-      <c r="O25" s="13">
-        <v>1033.2</v>
-      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
       <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C26" s="13">
+        <v>4072</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4072</v>
+      </c>
+      <c r="E26" s="46">
+        <v>4261</v>
+      </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -2338,21 +2565,21 @@
     </row>
     <row r="27" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="L27" s="46"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -2360,27 +2587,21 @@
     </row>
     <row r="28" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="13">
-        <v>4072</v>
-      </c>
-      <c r="D28" s="13">
-        <v>4072</v>
-      </c>
-      <c r="E28" s="13">
-        <v>4261</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="L28" s="46"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -2388,21 +2609,21 @@
     </row>
     <row r="29" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -2410,21 +2631,21 @@
     </row>
     <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="L30" s="46"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -2432,662 +2653,722 @@
     </row>
     <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="C32" s="13">
+        <v>7368</v>
+      </c>
+      <c r="D32" s="19">
+        <v>7368</v>
+      </c>
+      <c r="E32" s="46">
+        <v>7711</v>
+      </c>
+      <c r="F32" s="13">
+        <v>9473.2099999999991</v>
+      </c>
+      <c r="G32" s="46">
+        <v>7790</v>
+      </c>
+      <c r="H32" s="13">
+        <v>9473.2099999999991</v>
+      </c>
+      <c r="I32" s="13">
+        <v>7790</v>
+      </c>
+      <c r="J32" s="19">
+        <v>7790</v>
+      </c>
+      <c r="K32" s="13">
+        <v>9993</v>
+      </c>
+      <c r="L32" s="46">
+        <v>7790</v>
+      </c>
+      <c r="M32" s="13">
+        <v>7790</v>
+      </c>
+      <c r="N32" s="13">
+        <v>8312</v>
+      </c>
+      <c r="O32" s="13">
+        <v>7790</v>
+      </c>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1809.0785999999998</v>
+      </c>
+      <c r="D33" s="37">
+        <v>1809.0785999999998</v>
+      </c>
+      <c r="E33" s="26">
+        <v>1893.2189999999998</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2630.9270999999999</v>
+      </c>
+      <c r="G33" s="26">
+        <v>2297.79</v>
+      </c>
+      <c r="H33" s="14">
+        <v>2724.8570999999997</v>
+      </c>
+      <c r="I33" s="14">
+        <v>1793.7239999999999</v>
+      </c>
+      <c r="J33" s="37">
+        <v>1746.8213999999998</v>
+      </c>
+      <c r="K33" s="14">
+        <v>2802.1844999999998</v>
+      </c>
+      <c r="L33" s="26">
+        <v>2310.4319999999993</v>
+      </c>
+      <c r="M33" s="14">
+        <v>1860.99</v>
+      </c>
+      <c r="N33" s="14">
+        <v>1879.8462</v>
+      </c>
+      <c r="O33" s="14">
+        <v>1814.4959999999999</v>
+      </c>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="13">
-        <v>7368</v>
-      </c>
-      <c r="D34" s="13">
-        <v>7368</v>
-      </c>
-      <c r="E34" s="13">
-        <v>7711</v>
-      </c>
-      <c r="F34" s="13">
-        <v>9473.2099999999991</v>
-      </c>
-      <c r="G34" s="13">
-        <v>7790</v>
-      </c>
-      <c r="H34" s="13">
-        <v>9473.2099999999991</v>
-      </c>
-      <c r="I34" s="13">
-        <v>7790</v>
-      </c>
-      <c r="J34" s="13">
-        <v>7790</v>
-      </c>
-      <c r="K34" s="13">
-        <v>9993</v>
-      </c>
-      <c r="L34" s="13">
-        <v>7790</v>
-      </c>
-      <c r="M34" s="13">
-        <v>7790</v>
-      </c>
-      <c r="N34" s="13">
-        <v>8312</v>
-      </c>
-      <c r="O34" s="13">
-        <v>7790</v>
+        <v>55</v>
+      </c>
+      <c r="C34" s="14">
+        <v>238.20579000000001</v>
+      </c>
+      <c r="D34" s="37">
+        <v>238.20579000000001</v>
+      </c>
+      <c r="E34" s="26">
+        <v>249.28334999999998</v>
+      </c>
+      <c r="F34" s="14">
+        <v>352.00961999999998</v>
+      </c>
+      <c r="G34" s="26">
+        <v>309.61349999999999</v>
+      </c>
+      <c r="H34" s="14">
+        <v>366.09911999999997</v>
+      </c>
+      <c r="I34" s="14">
+        <v>234.00360000000001</v>
+      </c>
+      <c r="J34" s="37">
+        <v>226.96820999999997</v>
+      </c>
+      <c r="K34" s="14">
+        <v>375.35917499999994</v>
+      </c>
+      <c r="L34" s="26">
+        <v>311.50979999999993</v>
+      </c>
+      <c r="M34" s="14">
+        <v>244.09349999999998</v>
+      </c>
+      <c r="N34" s="14">
+        <v>244.57292999999999</v>
+      </c>
+      <c r="O34" s="14">
+        <v>237.11939999999996</v>
       </c>
       <c r="P34" s="12"/>
     </row>
     <row r="35" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="14">
-        <v>1349.8328099999999</v>
-      </c>
-      <c r="D35" s="14">
-        <v>1349.8328099999999</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1412.60565</v>
+        <v>1058.6924000000001</v>
+      </c>
+      <c r="D35" s="37">
+        <v>1058.6924000000001</v>
+      </c>
+      <c r="E35" s="26">
+        <v>1107.9260000000002</v>
       </c>
       <c r="F35" s="14">
-        <v>1994.7211799999998</v>
-      </c>
-      <c r="G35" s="14">
-        <v>1754.4765</v>
+        <v>1564.4872</v>
+      </c>
+      <c r="G35" s="26">
+        <v>1376.06</v>
       </c>
       <c r="H35" s="14">
-        <v>2074.5616799999998</v>
+        <v>1627.1072000000001</v>
       </c>
       <c r="I35" s="14">
-        <v>1326.0203999999999</v>
-      </c>
-      <c r="J35" s="14">
-        <v>1286.1531899999998</v>
+        <v>1040.0160000000001</v>
+      </c>
+      <c r="J35" s="37">
+        <v>1008.7475999999999</v>
       </c>
       <c r="K35" s="14">
-        <v>2127.0353249999998</v>
-      </c>
-      <c r="L35" s="14">
-        <v>1765.2221999999997</v>
+        <v>1668.2629999999999</v>
+      </c>
+      <c r="L35" s="26">
+        <v>1384.4879999999998</v>
       </c>
       <c r="M35" s="14">
-        <v>1383.1965</v>
+        <v>1084.8600000000001</v>
       </c>
       <c r="N35" s="14">
-        <v>1385.91327</v>
+        <v>1086.9908</v>
       </c>
       <c r="O35" s="14">
-        <v>1343.6765999999998</v>
+        <v>1053.864</v>
       </c>
       <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="11">
+        <v>81</v>
+      </c>
       <c r="B36" s="12" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C36" s="14">
-        <v>238.20579000000001</v>
-      </c>
-      <c r="D36" s="14">
-        <v>238.20579000000001</v>
-      </c>
-      <c r="E36" s="14">
-        <v>249.28334999999998</v>
+        <v>5822.8082000000004</v>
+      </c>
+      <c r="D36" s="37">
+        <v>5822.8082000000004</v>
+      </c>
+      <c r="E36" s="26">
+        <v>6093.5930000000008</v>
       </c>
       <c r="F36" s="14">
-        <v>352.00961999999998</v>
-      </c>
-      <c r="G36" s="14">
-        <v>309.61349999999999</v>
+        <v>8604.6795999999995</v>
+      </c>
+      <c r="G36" s="26">
+        <v>7568.33</v>
       </c>
       <c r="H36" s="14">
-        <v>366.09911999999997</v>
+        <v>8949.0895999999993</v>
       </c>
       <c r="I36" s="14">
-        <v>234.00360000000001</v>
-      </c>
-      <c r="J36" s="14">
-        <v>226.96820999999997</v>
+        <v>5720.0880000000006</v>
+      </c>
+      <c r="J36" s="37">
+        <v>5548.1117999999997</v>
       </c>
       <c r="K36" s="14">
-        <v>375.35917499999994</v>
-      </c>
-      <c r="L36" s="14">
-        <v>311.50979999999993</v>
+        <v>9175.4465</v>
+      </c>
+      <c r="L36" s="26">
+        <v>7614.6839999999993</v>
       </c>
       <c r="M36" s="14">
-        <v>244.09349999999998</v>
+        <v>5966.7300000000005</v>
       </c>
       <c r="N36" s="14">
-        <v>244.57292999999999</v>
+        <v>5978.4494000000004</v>
       </c>
       <c r="O36" s="14">
-        <v>237.11939999999996</v>
+        <v>5796.2519999999995</v>
       </c>
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="14">
-        <v>1058.6924000000001</v>
-      </c>
-      <c r="D37" s="14">
-        <v>1058.6924000000001</v>
-      </c>
-      <c r="E37" s="14">
-        <v>1107.9260000000002</v>
+        <v>1588.0386000000001</v>
+      </c>
+      <c r="D37" s="37">
+        <v>1588.0386000000001</v>
+      </c>
+      <c r="E37" s="26">
+        <v>1661.8890000000001</v>
       </c>
       <c r="F37" s="14">
-        <v>1564.4872</v>
-      </c>
-      <c r="G37" s="14">
-        <v>1376.06</v>
+        <v>2346.7307999999998</v>
+      </c>
+      <c r="G37" s="26">
+        <v>2064.09</v>
       </c>
       <c r="H37" s="14">
-        <v>1627.1072000000001</v>
+        <v>2440.6608000000001</v>
       </c>
       <c r="I37" s="14">
-        <v>1040.0160000000001</v>
-      </c>
-      <c r="J37" s="14">
-        <v>1008.7475999999999</v>
+        <v>1560.0240000000001</v>
+      </c>
+      <c r="J37" s="37">
+        <v>1513.1213999999998</v>
       </c>
       <c r="K37" s="14">
-        <v>1668.2629999999999</v>
-      </c>
-      <c r="L37" s="14">
-        <v>1384.4879999999998</v>
+        <v>2502.3944999999999</v>
+      </c>
+      <c r="L37" s="26">
+        <v>2076.732</v>
       </c>
       <c r="M37" s="14">
-        <v>1084.8600000000001</v>
+        <v>1627.29</v>
       </c>
       <c r="N37" s="14">
-        <v>1086.9908</v>
+        <v>1630.4862000000001</v>
       </c>
       <c r="O37" s="14">
-        <v>1053.864</v>
+        <v>1580.7959999999998</v>
       </c>
       <c r="P37" s="12"/>
     </row>
     <row r="38" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" s="14">
-        <v>5822.8082000000004</v>
-      </c>
-      <c r="D38" s="14">
-        <v>5822.8082000000004</v>
-      </c>
-      <c r="E38" s="14">
-        <v>6093.5930000000008</v>
+        <v>397.00965000000002</v>
+      </c>
+      <c r="D38" s="37">
+        <v>397.00965000000002</v>
+      </c>
+      <c r="E38" s="26">
+        <v>415.47225000000003</v>
       </c>
       <c r="F38" s="14">
-        <v>8604.6795999999995</v>
-      </c>
-      <c r="G38" s="14">
-        <v>7568.33</v>
+        <v>586.68269999999995</v>
+      </c>
+      <c r="G38" s="26">
+        <v>516.02250000000004</v>
       </c>
       <c r="H38" s="14">
-        <v>8949.0895999999993</v>
+        <v>610.16520000000003</v>
       </c>
       <c r="I38" s="14">
-        <v>5720.0880000000006</v>
-      </c>
-      <c r="J38" s="14">
-        <v>5548.1117999999997</v>
+        <v>390.00600000000003</v>
+      </c>
+      <c r="J38" s="37">
+        <v>378.28034999999994</v>
       </c>
       <c r="K38" s="14">
-        <v>9175.4465</v>
-      </c>
-      <c r="L38" s="14">
-        <v>7614.6839999999993</v>
+        <v>625.59862499999997</v>
+      </c>
+      <c r="L38" s="26">
+        <v>519.18299999999999</v>
       </c>
       <c r="M38" s="14">
-        <v>5966.7300000000005</v>
+        <v>406.82249999999999</v>
       </c>
       <c r="N38" s="14">
-        <v>5978.4494000000004</v>
+        <v>407.62155000000001</v>
       </c>
       <c r="O38" s="14">
-        <v>5796.2519999999995</v>
+        <v>395.19899999999996</v>
       </c>
       <c r="P38" s="12"/>
     </row>
     <row r="39" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1588.0386000000001</v>
-      </c>
-      <c r="D39" s="14">
-        <v>1588.0386000000001</v>
-      </c>
-      <c r="E39" s="14">
-        <v>1661.8890000000001</v>
-      </c>
-      <c r="F39" s="14">
-        <v>2346.7307999999998</v>
-      </c>
-      <c r="G39" s="14">
-        <v>2064.09</v>
-      </c>
-      <c r="H39" s="14">
-        <v>2440.6608000000001</v>
-      </c>
-      <c r="I39" s="14">
-        <v>1560.0240000000001</v>
-      </c>
-      <c r="J39" s="14">
-        <v>1513.1213999999998</v>
-      </c>
-      <c r="K39" s="14">
-        <v>2502.3944999999999</v>
-      </c>
-      <c r="L39" s="14">
-        <v>2076.732</v>
-      </c>
-      <c r="M39" s="14">
-        <v>1627.29</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1630.4862000000001</v>
-      </c>
-      <c r="O39" s="14">
-        <v>1580.7959999999998</v>
+        <v>59</v>
+      </c>
+      <c r="C39" s="26">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="D39" s="38">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="E39" s="26">
+        <v>154.22</v>
+      </c>
+      <c r="F39" s="26">
+        <v>189.46419999999998</v>
+      </c>
+      <c r="G39" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="H39" s="26">
+        <v>189.46419999999998</v>
+      </c>
+      <c r="I39" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="J39" s="38">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="K39" s="26">
+        <v>199.86</v>
+      </c>
+      <c r="L39" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="M39" s="26">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="N39" s="26">
+        <v>166.24</v>
+      </c>
+      <c r="O39" s="26">
+        <v>155.80000000000001</v>
       </c>
       <c r="P39" s="12"/>
     </row>
     <row r="40" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="14">
-        <v>397.00965000000002</v>
-      </c>
-      <c r="D40" s="14">
-        <v>397.00965000000002</v>
-      </c>
-      <c r="E40" s="14">
-        <v>415.47225000000003</v>
-      </c>
-      <c r="F40" s="14">
-        <v>586.68269999999995</v>
-      </c>
-      <c r="G40" s="14">
-        <v>516.02250000000004</v>
-      </c>
-      <c r="H40" s="14">
-        <v>610.16520000000003</v>
-      </c>
-      <c r="I40" s="14">
-        <v>390.00600000000003</v>
-      </c>
-      <c r="J40" s="14">
-        <v>378.28034999999994</v>
-      </c>
-      <c r="K40" s="14">
-        <v>625.59862499999997</v>
-      </c>
-      <c r="L40" s="14">
-        <v>519.18299999999999</v>
-      </c>
-      <c r="M40" s="14">
-        <v>406.82249999999999</v>
-      </c>
-      <c r="N40" s="14">
-        <v>407.62155000000001</v>
-      </c>
-      <c r="O40" s="14">
-        <v>395.19899999999996</v>
+        <v>60</v>
+      </c>
+      <c r="C40" s="26">
+        <v>187.88399999999999</v>
+      </c>
+      <c r="D40" s="38">
+        <v>187.88399999999999</v>
+      </c>
+      <c r="E40" s="26">
+        <v>196.63049999999998</v>
+      </c>
+      <c r="F40" s="26">
+        <v>241.56685499999998</v>
+      </c>
+      <c r="G40" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="H40" s="26">
+        <v>241.56685499999998</v>
+      </c>
+      <c r="I40" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="J40" s="38">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="K40" s="26">
+        <v>254.82149999999999</v>
+      </c>
+      <c r="L40" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="M40" s="26">
+        <v>198.64499999999998</v>
+      </c>
+      <c r="N40" s="26">
+        <v>211.95599999999999</v>
+      </c>
+      <c r="O40" s="26">
+        <v>198.64499999999998</v>
       </c>
       <c r="P40" s="12"/>
     </row>
     <row r="41" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" s="26">
-        <v>147.36000000000001</v>
-      </c>
-      <c r="D41" s="26">
-        <v>147.36000000000001</v>
+        <v>33.155999999999999</v>
+      </c>
+      <c r="D41" s="38">
+        <v>33.155999999999999</v>
       </c>
       <c r="E41" s="26">
-        <v>154.22</v>
+        <v>34.6995</v>
       </c>
       <c r="F41" s="26">
-        <v>189.46419999999998</v>
+        <v>42.62944499999999</v>
       </c>
       <c r="G41" s="26">
-        <v>155.80000000000001</v>
+        <v>35.055</v>
       </c>
       <c r="H41" s="26">
-        <v>189.46419999999998</v>
+        <v>42.62944499999999</v>
       </c>
       <c r="I41" s="26">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="J41" s="26">
-        <v>155.80000000000001</v>
+        <v>35.055</v>
+      </c>
+      <c r="J41" s="38">
+        <v>35.055</v>
       </c>
       <c r="K41" s="26">
-        <v>199.86</v>
+        <v>44.968499999999999</v>
       </c>
       <c r="L41" s="26">
-        <v>155.80000000000001</v>
+        <v>35.055</v>
       </c>
       <c r="M41" s="26">
-        <v>155.80000000000001</v>
+        <v>35.055</v>
       </c>
       <c r="N41" s="26">
-        <v>166.24</v>
+        <v>37.403999999999996</v>
       </c>
       <c r="O41" s="26">
-        <v>155.80000000000001</v>
+        <v>35.055</v>
       </c>
       <c r="P41" s="12"/>
     </row>
     <row r="42" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="26">
-        <v>187.88399999999999</v>
-      </c>
-      <c r="D42" s="26">
-        <v>187.88399999999999</v>
+        <v>7</v>
+      </c>
+      <c r="C42" s="14">
+        <v>794.01930000000004</v>
+      </c>
+      <c r="D42" s="37">
+        <v>794.01930000000004</v>
       </c>
       <c r="E42" s="26">
-        <v>196.63049999999998</v>
-      </c>
-      <c r="F42" s="26">
-        <v>241.56685499999998</v>
+        <v>830.94450000000006</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1173.3653999999999</v>
       </c>
       <c r="G42" s="26">
-        <v>198.64499999999998</v>
-      </c>
-      <c r="H42" s="26">
-        <v>241.56685499999998</v>
-      </c>
-      <c r="I42" s="26">
-        <v>198.64499999999998</v>
-      </c>
-      <c r="J42" s="26">
-        <v>198.64499999999998</v>
-      </c>
-      <c r="K42" s="26">
-        <v>254.82149999999999</v>
+        <v>1032.0450000000001</v>
+      </c>
+      <c r="H42" s="14">
+        <v>1220.3304000000001</v>
+      </c>
+      <c r="I42" s="14">
+        <v>780.01200000000006</v>
+      </c>
+      <c r="J42" s="37">
+        <v>756.56069999999988</v>
+      </c>
+      <c r="K42" s="14">
+        <v>1251.1972499999999</v>
       </c>
       <c r="L42" s="26">
-        <v>198.64499999999998</v>
-      </c>
-      <c r="M42" s="26">
-        <v>198.64499999999998</v>
-      </c>
-      <c r="N42" s="26">
-        <v>211.95599999999999</v>
-      </c>
-      <c r="O42" s="26">
-        <v>198.64499999999998</v>
+        <v>1038.366</v>
+      </c>
+      <c r="M42" s="14">
+        <v>813.64499999999998</v>
+      </c>
+      <c r="N42" s="14">
+        <v>815.24310000000003</v>
+      </c>
+      <c r="O42" s="14">
+        <v>790.39799999999991</v>
       </c>
       <c r="P42" s="12"/>
     </row>
     <row r="43" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="11">
+        <v>91</v>
+      </c>
       <c r="B43" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="26">
-        <v>33.155999999999999</v>
-      </c>
-      <c r="D43" s="26">
-        <v>33.155999999999999</v>
+        <v>8</v>
+      </c>
+      <c r="C43" s="14">
+        <v>550</v>
+      </c>
+      <c r="D43" s="37">
+        <v>550</v>
       </c>
       <c r="E43" s="26">
-        <v>34.6995</v>
-      </c>
-      <c r="F43" s="26">
-        <v>42.62944499999999</v>
+        <v>550</v>
+      </c>
+      <c r="F43" s="14">
+        <v>700</v>
       </c>
       <c r="G43" s="26">
-        <v>35.055</v>
-      </c>
-      <c r="H43" s="26">
-        <v>42.62944499999999</v>
-      </c>
-      <c r="I43" s="26">
-        <v>35.055</v>
-      </c>
-      <c r="J43" s="26">
-        <v>35.055</v>
-      </c>
-      <c r="K43" s="26">
-        <v>44.968499999999999</v>
+        <v>550</v>
+      </c>
+      <c r="H43" s="14">
+        <v>800</v>
+      </c>
+      <c r="I43" s="14">
+        <v>550</v>
+      </c>
+      <c r="J43" s="37">
+        <v>0</v>
+      </c>
+      <c r="K43" s="14">
+        <v>800</v>
       </c>
       <c r="L43" s="26">
-        <v>35.055</v>
-      </c>
-      <c r="M43" s="26">
-        <v>35.055</v>
-      </c>
-      <c r="N43" s="26">
-        <v>37.403999999999996</v>
-      </c>
-      <c r="O43" s="26">
-        <v>35.055</v>
+        <v>800</v>
+      </c>
+      <c r="M43" s="14">
+        <v>2800</v>
+      </c>
+      <c r="N43" s="14">
+        <v>3100</v>
+      </c>
+      <c r="O43" s="14">
+        <v>5509</v>
       </c>
       <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>87</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="14">
-        <v>794.01930000000004</v>
-      </c>
-      <c r="D44" s="14">
-        <v>794.01930000000004</v>
-      </c>
-      <c r="E44" s="14">
-        <v>830.94450000000006</v>
-      </c>
-      <c r="F44" s="14">
-        <v>1173.3653999999999</v>
-      </c>
-      <c r="G44" s="14">
-        <v>1032.0450000000001</v>
-      </c>
-      <c r="H44" s="14">
-        <v>1220.3304000000001</v>
-      </c>
-      <c r="I44" s="14">
-        <v>780.01200000000006</v>
-      </c>
-      <c r="J44" s="14">
-        <v>756.56069999999988</v>
-      </c>
-      <c r="K44" s="14">
-        <v>1251.1972499999999</v>
-      </c>
-      <c r="L44" s="14">
-        <v>1038.366</v>
-      </c>
-      <c r="M44" s="14">
-        <v>813.64499999999998</v>
-      </c>
-      <c r="N44" s="14">
-        <v>815.24310000000003</v>
-      </c>
-      <c r="O44" s="14">
-        <v>790.39799999999991</v>
-      </c>
-      <c r="P44" s="12"/>
-    </row>
-    <row r="45" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>91</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="14">
-        <v>550</v>
-      </c>
-      <c r="D45" s="14">
-        <v>550</v>
-      </c>
-      <c r="E45" s="14">
-        <v>550</v>
-      </c>
-      <c r="F45" s="14">
-        <v>700</v>
-      </c>
-      <c r="G45" s="14">
-        <v>550</v>
-      </c>
-      <c r="H45" s="14">
-        <v>800</v>
-      </c>
-      <c r="I45" s="14">
-        <v>550</v>
-      </c>
-      <c r="J45" s="14">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14">
-        <v>800</v>
-      </c>
-      <c r="L45" s="14">
-        <v>800</v>
-      </c>
-      <c r="M45" s="14">
-        <v>2800</v>
-      </c>
-      <c r="N45" s="14">
-        <v>3100</v>
-      </c>
-      <c r="O45" s="14">
-        <v>5509</v>
-      </c>
-      <c r="P45" s="12"/>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="D44" s="39">
+        <v>52934.62</v>
+      </c>
+      <c r="E44" s="47">
+        <v>55396.3</v>
+      </c>
+      <c r="F44" s="6">
+        <v>78224</v>
+      </c>
+      <c r="G44" s="47">
+        <v>68803</v>
+      </c>
+      <c r="H44" s="6">
+        <v>81355.360000000001</v>
+      </c>
+      <c r="I44" s="6">
+        <v>52000.800000000003</v>
+      </c>
+      <c r="J44" s="39">
+        <v>50437.38</v>
+      </c>
+      <c r="K44" s="6">
+        <v>83413.149999999994</v>
+      </c>
+      <c r="L44" s="47">
+        <v>69224.399999999994</v>
+      </c>
+      <c r="M44" s="6">
+        <v>54243</v>
+      </c>
+      <c r="N44" s="6">
+        <v>54349.54</v>
+      </c>
+      <c r="O44" s="6">
+        <v>52693.2</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="6">
+        <v>52934.62</v>
+      </c>
+      <c r="D45" s="39">
+        <v>52934.62</v>
+      </c>
+      <c r="E45" s="47">
+        <v>55396.3</v>
+      </c>
+      <c r="F45" s="6">
+        <v>78224</v>
+      </c>
+      <c r="G45" s="47">
+        <v>68803</v>
+      </c>
+      <c r="H45" s="6">
+        <v>81355.360000000001</v>
+      </c>
+      <c r="I45" s="6">
+        <v>52000.800000000003</v>
+      </c>
+      <c r="J45" s="39">
+        <v>50437.38</v>
+      </c>
+      <c r="K45" s="6">
+        <v>83413.149999999994</v>
+      </c>
+      <c r="L45" s="47">
+        <v>69224.399999999994</v>
+      </c>
+      <c r="M45" s="6">
+        <v>54243</v>
+      </c>
+      <c r="N45" s="6">
+        <v>54349.54</v>
+      </c>
+      <c r="O45" s="6">
+        <v>52693.2</v>
+      </c>
+      <c r="P45"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>76</v>
+      <c r="A46" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
       </c>
       <c r="C46" s="6">
         <v>52934.62</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="39">
         <v>52934.62</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="47">
         <v>55396.3</v>
       </c>
       <c r="F46" s="6">
         <v>78224</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="47">
         <v>68803</v>
       </c>
       <c r="H46" s="6">
@@ -3096,13 +3377,13 @@
       <c r="I46" s="6">
         <v>52000.800000000003</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="39">
         <v>50437.38</v>
       </c>
       <c r="K46" s="6">
         <v>83413.149999999994</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="47">
         <v>69224.399999999994</v>
       </c>
       <c r="M46" s="6">
@@ -3114,80 +3395,74 @@
       <c r="O46" s="6">
         <v>52693.2</v>
       </c>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>77</v>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C47" s="6">
-        <v>52934.62</v>
-      </c>
-      <c r="D47" s="6">
-        <v>52934.62</v>
-      </c>
-      <c r="E47" s="6">
-        <v>55396.3</v>
+        <v>60302.62</v>
+      </c>
+      <c r="D47" s="39">
+        <v>60302.62</v>
+      </c>
+      <c r="E47" s="47">
+        <v>63107.5</v>
       </c>
       <c r="F47" s="6">
-        <v>78224</v>
-      </c>
-      <c r="G47" s="6">
-        <v>68803</v>
+        <v>87697.21</v>
+      </c>
+      <c r="G47" s="47">
+        <v>76593</v>
       </c>
       <c r="H47" s="6">
-        <v>81355.360000000001</v>
+        <v>90828.57</v>
       </c>
       <c r="I47" s="6">
-        <v>52000.800000000003</v>
-      </c>
-      <c r="J47" s="6">
-        <v>50437.38</v>
+        <v>59790.8</v>
+      </c>
+      <c r="J47" s="39">
+        <v>58227.38</v>
       </c>
       <c r="K47" s="6">
-        <v>83413.149999999994</v>
-      </c>
-      <c r="L47" s="6">
-        <v>69224.399999999994</v>
+        <v>93406.15</v>
+      </c>
+      <c r="L47" s="47">
+        <v>77014.399999999994</v>
       </c>
       <c r="M47" s="6">
-        <v>54243</v>
+        <v>62033</v>
       </c>
       <c r="N47" s="6">
-        <v>54349.54</v>
+        <v>62661.54</v>
       </c>
       <c r="O47" s="6">
-        <v>52693.2</v>
-      </c>
-      <c r="P47"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>60483.199999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C48" s="6">
         <v>52934.62</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="39">
         <v>52934.62</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="47">
         <v>55396.3</v>
       </c>
       <c r="F48" s="6">
         <v>78224</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="47">
         <v>68803</v>
       </c>
       <c r="H48" s="6">
@@ -3196,13 +3471,13 @@
       <c r="I48" s="6">
         <v>52000.800000000003</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="39">
         <v>50437.38</v>
       </c>
       <c r="K48" s="6">
         <v>83413.149999999994</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="47">
         <v>69224.399999999994</v>
       </c>
       <c r="M48" s="6">
@@ -3214,477 +3489,395 @@
       <c r="O48" s="6">
         <v>52693.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="39">
+        <v>0</v>
+      </c>
+      <c r="E49" s="47">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="47">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="39">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="47">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="39">
+        <v>0</v>
+      </c>
+      <c r="E50" s="47">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="47">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="39">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="47">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="6">
         <v>60302.62</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D51" s="39">
         <v>60302.62</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E51" s="47">
         <v>63107.5</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F51" s="6">
         <v>87697.21</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G51" s="47">
         <v>76593</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H51" s="6">
         <v>90828.57</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I51" s="6">
         <v>59790.8</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J51" s="39">
         <v>58227.38</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K51" s="6">
         <v>93406.15</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L51" s="47">
         <v>77014.399999999994</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M51" s="6">
         <v>62033</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N51" s="6">
         <v>62661.54</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O51" s="6">
         <v>60483.199999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="6">
-        <v>62934.62</v>
-      </c>
-      <c r="D50" s="6">
-        <v>62934.62</v>
-      </c>
-      <c r="E50" s="6">
-        <v>55396.3</v>
-      </c>
-      <c r="F50" s="6">
-        <v>78224</v>
-      </c>
-      <c r="G50" s="6">
-        <v>68803</v>
-      </c>
-      <c r="H50" s="6">
-        <v>81355.360000000001</v>
-      </c>
-      <c r="I50" s="6">
-        <v>52000.800000000003</v>
-      </c>
-      <c r="J50" s="6">
-        <v>50437.38</v>
-      </c>
-      <c r="K50" s="6">
-        <v>83413.149999999994</v>
-      </c>
-      <c r="L50" s="6">
-        <v>69224.399999999994</v>
-      </c>
-      <c r="M50" s="6">
-        <v>54243</v>
-      </c>
-      <c r="N50" s="6">
-        <v>54349.54</v>
-      </c>
-      <c r="O50" s="6">
-        <v>52693.2</v>
-      </c>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
+        <v>60302.62</v>
+      </c>
+      <c r="D52" s="39">
+        <v>60302.62</v>
+      </c>
+      <c r="E52" s="47">
+        <v>63107.5</v>
       </c>
       <c r="F52" s="6">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0</v>
+        <v>87697.21</v>
+      </c>
+      <c r="G52" s="47">
+        <v>76593</v>
       </c>
       <c r="H52" s="6">
-        <v>0</v>
+        <v>90828.57</v>
       </c>
       <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
+        <v>59790.8</v>
+      </c>
+      <c r="J52" s="39">
+        <v>58227.38</v>
       </c>
       <c r="K52" s="6">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
+        <v>93406.15</v>
+      </c>
+      <c r="L52" s="47">
+        <v>77014.399999999994</v>
       </c>
       <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0</v>
+        <v>62033</v>
+      </c>
+      <c r="N52" s="41">
+        <v>62661.54</v>
       </c>
       <c r="O52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60483.199999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C53" s="6">
-        <v>60302.62</v>
-      </c>
-      <c r="D53" s="6">
-        <v>60302.62</v>
-      </c>
-      <c r="E53" s="6">
-        <v>63107.5</v>
-      </c>
-      <c r="F53" s="6">
-        <v>87697.21</v>
-      </c>
-      <c r="G53" s="6">
-        <v>76593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D53" s="39">
+        <v>0</v>
+      </c>
+      <c r="E53" s="47">
+        <v>0</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="6">
-        <v>90828.57</v>
+        <v>0</v>
       </c>
       <c r="I53" s="6">
-        <v>59790.8</v>
-      </c>
-      <c r="J53" s="6">
-        <v>58227.38</v>
+        <v>0</v>
+      </c>
+      <c r="J53" s="39">
+        <v>0</v>
       </c>
       <c r="K53" s="6">
-        <v>93406.15</v>
-      </c>
-      <c r="L53" s="6">
-        <v>77014.399999999994</v>
+        <v>0</v>
+      </c>
+      <c r="L53" s="47">
+        <v>0</v>
       </c>
       <c r="M53" s="6">
-        <v>62033</v>
+        <v>0</v>
       </c>
       <c r="N53" s="6">
-        <v>62661.54</v>
+        <v>0</v>
       </c>
       <c r="O53" s="6">
-        <v>60483.199999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C54" s="6">
-        <v>60302.62</v>
-      </c>
-      <c r="D54" s="6">
-        <v>60302.62</v>
-      </c>
-      <c r="E54" s="6">
-        <v>63107.5</v>
+        <v>0</v>
+      </c>
+      <c r="D54" s="39">
+        <v>0</v>
+      </c>
+      <c r="E54" s="47">
+        <v>0</v>
       </c>
       <c r="F54" s="6">
-        <v>87697.21</v>
-      </c>
-      <c r="G54" s="6">
-        <v>76593</v>
+        <v>0</v>
+      </c>
+      <c r="G54" s="47">
+        <v>0</v>
       </c>
       <c r="H54" s="6">
-        <v>90828.57</v>
+        <v>0</v>
       </c>
       <c r="I54" s="6">
-        <v>59790.8</v>
-      </c>
-      <c r="J54" s="6">
-        <v>58227.38</v>
+        <v>0</v>
+      </c>
+      <c r="J54" s="39">
+        <v>0</v>
       </c>
       <c r="K54" s="6">
-        <v>93406.15</v>
-      </c>
-      <c r="L54" s="6">
-        <v>77014.399999999994</v>
+        <v>0</v>
+      </c>
+      <c r="L54" s="47">
+        <v>0</v>
       </c>
       <c r="M54" s="6">
-        <v>62033</v>
+        <v>0</v>
       </c>
       <c r="N54" s="6">
-        <v>61661.54</v>
+        <v>0</v>
       </c>
       <c r="O54" s="6">
-        <v>60483.199999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55"/>
-      <c r="G55"/>
+        <v>45930.94</v>
+      </c>
+      <c r="D55" s="39">
+        <v>45930.94</v>
+      </c>
+      <c r="E55" s="47">
+        <v>48392.62</v>
+      </c>
+      <c r="F55" s="47">
+        <v>71220.679999999993</v>
+      </c>
+      <c r="G55" s="47">
+        <v>61799.32</v>
+      </c>
       <c r="H55" s="6">
-        <v>0</v>
+        <v>74351.679999999993</v>
       </c>
       <c r="I55" s="6">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0</v>
+        <v>44997.120000000003</v>
+      </c>
+      <c r="J55" s="39">
+        <v>43433.7</v>
       </c>
       <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
+        <v>76409.47</v>
+      </c>
+      <c r="L55" s="47">
+        <v>62220.72</v>
       </c>
       <c r="M55" s="6">
-        <v>0</v>
+        <v>47239.32</v>
       </c>
       <c r="N55" s="6">
-        <v>0</v>
+        <v>47345.86</v>
       </c>
       <c r="O55" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45689.52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="6">
-        <v>52934.62</v>
-      </c>
-      <c r="D56" s="6">
-        <v>52934.62</v>
-      </c>
-      <c r="E56" s="6">
-        <v>55396.3</v>
-      </c>
-      <c r="F56" s="6">
-        <v>78224</v>
-      </c>
-      <c r="G56" s="6">
-        <v>68803</v>
-      </c>
-      <c r="H56" s="6">
-        <v>81355.360000000001</v>
-      </c>
-      <c r="I56" s="6">
-        <v>52000.800000000003</v>
-      </c>
-      <c r="J56" s="6">
-        <v>50437.38</v>
-      </c>
-      <c r="K56" s="6">
-        <v>83413.149999999994</v>
-      </c>
-      <c r="L56" s="6">
-        <v>69224.399999999994</v>
-      </c>
-      <c r="M56" s="6">
-        <v>54243</v>
-      </c>
-      <c r="N56" s="6">
-        <v>54349.54</v>
-      </c>
-      <c r="O56" s="6">
-        <v>52693.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="6">
-        <v>45930.94</v>
-      </c>
-      <c r="D57" s="6">
-        <v>45930.94</v>
-      </c>
-      <c r="E57" s="6">
-        <v>48392.62</v>
-      </c>
-      <c r="F57" s="6">
-        <v>71220.320000000007</v>
-      </c>
-      <c r="G57" s="6">
-        <v>61799.32</v>
-      </c>
-      <c r="H57" s="6">
-        <v>74351.679999999993</v>
-      </c>
-      <c r="I57" s="6">
-        <v>44997.120000000003</v>
-      </c>
-      <c r="J57" s="6">
-        <v>43433.7</v>
-      </c>
-      <c r="K57" s="6">
-        <v>76409.47</v>
-      </c>
-      <c r="L57" s="6">
-        <v>62220.72</v>
-      </c>
-      <c r="M57" s="6">
-        <v>47239.32</v>
-      </c>
-      <c r="N57" s="6">
-        <v>47345.86</v>
-      </c>
-      <c r="O57" s="6">
-        <v>60483.199999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N56" s="47">
         <v>7003.68</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O56" s="47">
         <v>7003.68</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I33:I43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.53" right="0.37" top="0.28999999999999998" bottom="0.34" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
